--- a/data/trans_orig/Q5414-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Habitat-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8147</v>
+        <v>7807</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01566524895986001</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05448164042390502</v>
+        <v>0.05220983539462134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8275</v>
+        <v>7253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00885555389822513</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0312841012975612</v>
+        <v>0.02742012477311053</v>
       </c>
     </row>
     <row r="5">
@@ -810,16 +810,16 @@
         <v>851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7269</v>
+        <v>7119</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02331451666671923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007404158897060578</v>
+        <v>0.007399506094175688</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06321503902532707</v>
+        <v>0.0619130599204193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>2681</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7317</v>
+        <v>7119</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01013483727048158</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0</v>
+        <v>0.003258703404936223</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02766287773865742</v>
+        <v>0.02691147666223025</v>
       </c>
     </row>
     <row r="6">
@@ -870,7 +870,7 @@
         <v>112308</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107720</v>
+        <v>107870</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>114138</v>
@@ -879,10 +879,10 @@
         <v>0.9766854833332808</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9367849609746733</v>
+        <v>0.9380869400795807</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9925958411029394</v>
+        <v>0.9926004939058243</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>149</v>
@@ -891,7 +891,7 @@
         <v>147192</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>141388</v>
+        <v>141728</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>149535</v>
@@ -900,7 +900,7 @@
         <v>0.98433475104014</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.945518359576095</v>
+        <v>0.9477901646053727</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -912,19 +912,19 @@
         <v>259501</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>251923</v>
+        <v>253372</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>262696</v>
+        <v>262712</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9810096088312933</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9523621288204571</v>
+        <v>0.9578395962029177</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9930907331370825</v>
+        <v>0.9931499858359359</v>
       </c>
     </row>
     <row r="7">
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>1.549489913248474e-06</v>
+        <v>1.895764774388217e-06</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>8.610791551187367e-07</v>
+        <v>8.552188852795682e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1079,19 +1079,19 @@
         <v>3772</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9411</v>
+        <v>9030</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02585832136839039</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006549046572350501</v>
+        <v>0.00644176171063453</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06451088201651256</v>
+        <v>0.06189306418148562</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1100,19 +1100,19 @@
         <v>4336</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1136</v>
+        <v>1149</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10075</v>
+        <v>11023</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02373631684573024</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006219617533026239</v>
+        <v>0.006288771233922636</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05515002067529214</v>
+        <v>0.0603419889683107</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -1121,19 +1121,19 @@
         <v>8109</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3722</v>
+        <v>3650</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15170</v>
+        <v>15128</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02467851557712875</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0113280721000285</v>
+        <v>0.01110958211299199</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04616949226979242</v>
+        <v>0.04604141381208971</v>
       </c>
     </row>
     <row r="10">
@@ -1150,19 +1150,19 @@
         <v>142117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136478</v>
+        <v>136859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144934</v>
+        <v>144949</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9741416786316096</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9354891179834874</v>
+        <v>0.938106935818514</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9934509534276496</v>
+        <v>0.9935582382893655</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>165</v>
@@ -1171,19 +1171,19 @@
         <v>178344</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>172605</v>
+        <v>171657</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>181544</v>
+        <v>181531</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9762633793176759</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9448494044476279</v>
+        <v>0.939658011256849</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9937799405639474</v>
+        <v>0.9937112298910812</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>307</v>
@@ -1192,19 +1192,19 @@
         <v>320459</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>313398</v>
+        <v>313440</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>324846</v>
+        <v>324918</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9753213154938378</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9538302246265372</v>
+        <v>0.9539584918548472</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9886719279240148</v>
+        <v>0.9888904190129096</v>
       </c>
     </row>
     <row r="11">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5039</v>
+        <v>4946</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009446971128093892</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04827920640839144</v>
+        <v>0.0473872314033457</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4988</v>
+        <v>4984</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004104515335919985</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02076401296489226</v>
+        <v>0.02074785310259325</v>
       </c>
     </row>
     <row r="13">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7142</v>
+        <v>7524</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01542476868596013</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05257191442934368</v>
+        <v>0.05538616187869622</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7200</v>
+        <v>6343</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00872302282836313</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02997237081174164</v>
+        <v>0.02640510040826467</v>
       </c>
     </row>
     <row r="14">
@@ -1422,7 +1422,7 @@
         <v>103385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>99332</v>
+        <v>99425</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>104371</v>
@@ -1431,7 +1431,7 @@
         <v>0.9905530288719061</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9517207935916087</v>
+        <v>0.9526127685966543</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>133755</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>128708</v>
+        <v>128326</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>135850</v>
@@ -1452,7 +1452,7 @@
         <v>0.9845752313140399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9474280855706564</v>
+        <v>0.9446138381213048</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1464,19 +1464,19 @@
         <v>237140</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>231729</v>
+        <v>232071</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>239243</v>
+        <v>239245</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9871724618357168</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9646472280845545</v>
+        <v>0.9660739528625618</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9959267497982005</v>
+        <v>0.9959383739572049</v>
       </c>
     </row>
     <row r="15">
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4587</v>
+        <v>5231</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006110045474705776</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03342755153683204</v>
+        <v>0.0381205609407777</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6936</v>
+        <v>6524</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009677980957457777</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0332238563666399</v>
+        <v>0.03124992299205712</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1610,19 +1610,19 @@
         <v>2859</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7264</v>
+        <v>7227</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00826298045790509</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002416325647199736</v>
+        <v>0.002404345432825493</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02099318631164678</v>
+        <v>0.02088716333997591</v>
       </c>
     </row>
     <row r="17">
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5967</v>
+        <v>4991</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01195302921832015</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04348915853627415</v>
+        <v>0.03637186847400193</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7830</v>
+        <v>7907</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01084718176856228</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03750465169259135</v>
+        <v>0.03787394105902412</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1681,19 +1681,19 @@
         <v>3905</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1103</v>
+        <v>836</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10315</v>
+        <v>9454</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01128574762867966</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003187603908223701</v>
+        <v>0.002416465998261816</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02981374120204878</v>
+        <v>0.02732387266035055</v>
       </c>
     </row>
     <row r="18">
@@ -1710,19 +1710,19 @@
         <v>134738</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>130656</v>
+        <v>130580</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>136416</v>
+        <v>136419</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9819369253069741</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9521827030474724</v>
+        <v>0.9516309537402441</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9941653006357284</v>
+        <v>0.9941860748136248</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>196</v>
@@ -1731,19 +1731,19 @@
         <v>204492</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>198960</v>
+        <v>198322</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>207672</v>
+        <v>207647</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.97947483727398</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9529802428817862</v>
+        <v>0.9499203448015324</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9947057156371569</v>
+        <v>0.9945863933651413</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>349</v>
@@ -1752,19 +1752,19 @@
         <v>339231</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>332945</v>
+        <v>333086</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>343210</v>
+        <v>343269</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9804512719134153</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9622829787421798</v>
+        <v>0.9626900243540392</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9919520285352033</v>
+        <v>0.9921203945045151</v>
       </c>
     </row>
     <row r="19">
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6229</v>
+        <v>6459</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003630880060061497</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01239688647375595</v>
+        <v>0.01285508020912717</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1877,19 +1877,19 @@
         <v>4363</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10648</v>
+        <v>10309</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006446272307966698</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001704408055958046</v>
+        <v>0.001695432792472907</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01573178700912805</v>
+        <v>0.01523173440684728</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1898,19 +1898,19 @@
         <v>6188</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2315</v>
+        <v>2272</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13507</v>
+        <v>12712</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005246722323954361</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001962988289154578</v>
+        <v>0.001926693993247964</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01145369360312125</v>
+        <v>0.01077913372620147</v>
       </c>
     </row>
     <row r="21">
@@ -1927,19 +1927,19 @@
         <v>8094</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3633</v>
+        <v>3594</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15006</v>
+        <v>13797</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01610758264382676</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007230598002809448</v>
+        <v>0.007151925965693604</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02986454548353293</v>
+        <v>0.02745868962420548</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1948,19 +1948,19 @@
         <v>8696</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4211</v>
+        <v>4231</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16955</v>
+        <v>17290</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01284825081611815</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006221519777470142</v>
+        <v>0.006251013134590166</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02505000575282022</v>
+        <v>0.02554508757334463</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>17</v>
@@ -1969,19 +1969,19 @@
         <v>16790</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10447</v>
+        <v>10303</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25946</v>
+        <v>25821</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01423694947603945</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008858162210160983</v>
+        <v>0.008736083288452233</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02200145422899554</v>
+        <v>0.02189516891272558</v>
       </c>
     </row>
     <row r="22">
@@ -1998,19 +1998,19 @@
         <v>492548</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>484449</v>
+        <v>486132</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>497214</v>
+        <v>497134</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9802615372961118</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9641422800938788</v>
+        <v>0.967492123220223</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9895482156228261</v>
+        <v>0.9893873449657176</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>648</v>
@@ -2019,19 +2019,19 @@
         <v>663783</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>654554</v>
+        <v>654809</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>670238</v>
+        <v>669963</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9807054768759151</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9670700562150728</v>
+        <v>0.9674472432768692</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9902425103068391</v>
+        <v>0.9898367963869905</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1160</v>
@@ -2040,19 +2040,19 @@
         <v>1156331</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1145857</v>
+        <v>1145656</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1164318</v>
+        <v>1164511</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9805163282000062</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9716347267760019</v>
+        <v>0.9714644809106923</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9872891021079236</v>
+        <v>0.9874531378608046</v>
       </c>
     </row>
     <row r="23">
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7557</v>
+        <v>4358</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007573429566861276</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05415431329558097</v>
+        <v>0.03122776731205983</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8453</v>
+        <v>7420</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01272847503119977</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0506826540791369</v>
+        <v>0.0444879596259547</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2426,19 +2426,19 @@
         <v>3180</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8491</v>
+        <v>8980</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01038014618891986</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003419539538570419</v>
+        <v>0.003413067912510467</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0277194612536668</v>
+        <v>0.02931527014033159</v>
       </c>
     </row>
     <row r="5">
@@ -2455,19 +2455,19 @@
         <v>3186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1013</v>
+        <v>993</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9450</v>
+        <v>8695</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02283195082073034</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007257992132395207</v>
+        <v>0.007119348214764072</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06772011845177564</v>
+        <v>0.06230607388159948</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7444</v>
+        <v>6400</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01265052528289298</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04463192849193503</v>
+        <v>0.03836963019924632</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -2497,19 +2497,19 @@
         <v>5296</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10869</v>
+        <v>11680</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01728857074950009</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006752066696999542</v>
+        <v>0.006747888321732729</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03548215288262541</v>
+        <v>0.03812704531144349</v>
       </c>
     </row>
     <row r="6">
@@ -2526,19 +2526,19 @@
         <v>135304</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>128614</v>
+        <v>129579</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>138482</v>
+        <v>138503</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9695946196124083</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9216566160131012</v>
+        <v>0.9285666896209623</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9923661996914472</v>
+        <v>0.9925167005005144</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>153</v>
@@ -2547,19 +2547,19 @@
         <v>162554</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>157152</v>
+        <v>157150</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>165726</v>
+        <v>165721</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9746209996859072</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9422291934753274</v>
+        <v>0.9422212958583172</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9936405865093352</v>
+        <v>0.9936060259305883</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>278</v>
@@ -2568,19 +2568,19 @@
         <v>297858</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>290519</v>
+        <v>290355</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>303125</v>
+        <v>302143</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.97233128306158</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9483740381137664</v>
+        <v>0.9478365806036616</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9895243320256436</v>
+        <v>0.9863190148959287</v>
       </c>
     </row>
     <row r="7">
@@ -2672,19 +2672,19 @@
         <v>3028</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8102</v>
+        <v>8200</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01954885679750858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006367203132085063</v>
+        <v>0.006292047570461414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05231261269469686</v>
+        <v>0.05294268348335181</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -2693,19 +2693,19 @@
         <v>4467</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11126</v>
+        <v>11056</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0233339631123393</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005767962576872644</v>
+        <v>0.005777303866152868</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05812197283107969</v>
+        <v>0.05775870298447543</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -2714,19 +2714,19 @@
         <v>7494</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3370</v>
+        <v>3119</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16126</v>
+        <v>14379</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02164111512103064</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00973256611028297</v>
+        <v>0.009006075258239054</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0465655432668888</v>
+        <v>0.04152322043904799</v>
       </c>
     </row>
     <row r="9">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5712</v>
+        <v>5651</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007174134999996509</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03688126901156134</v>
+        <v>0.03648386354621842</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -2764,19 +2764,19 @@
         <v>6780</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2386</v>
+        <v>2367</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13924</v>
+        <v>13635</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0354217541150957</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01246524435873847</v>
+        <v>0.01236377819670092</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07274047923549672</v>
+        <v>0.07123036961076822</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -2785,19 +2785,19 @@
         <v>7892</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3296</v>
+        <v>3397</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15568</v>
+        <v>14894</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02278831100918221</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009517821240614175</v>
+        <v>0.009809423473046624</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04495545737909849</v>
+        <v>0.0430080504721331</v>
       </c>
     </row>
     <row r="10">
@@ -2814,19 +2814,19 @@
         <v>150739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145099</v>
+        <v>145326</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153850</v>
+        <v>153869</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.973277008202495</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9368604699917937</v>
+        <v>0.9383249394895056</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9933623229651724</v>
+        <v>0.9934851793637922</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>167</v>
@@ -2835,19 +2835,19 @@
         <v>180173</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170813</v>
+        <v>171420</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>185863</v>
+        <v>185815</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.941244282772565</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8923447056239127</v>
+        <v>0.8955183574581349</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9709695492320153</v>
+        <v>0.970719191489941</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>301</v>
@@ -2856,19 +2856,19 @@
         <v>330912</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>321818</v>
+        <v>322208</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>337652</v>
+        <v>337904</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9555705738697872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9293092190669835</v>
+        <v>0.9304367331301191</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9750341016731469</v>
+        <v>0.9757593224897017</v>
       </c>
     </row>
     <row r="11">
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5178</v>
+        <v>5802</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01024836164566847</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0499831731514951</v>
+        <v>0.05600055753677903</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7826</v>
+        <v>7431</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01650701431281381</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05549885707010277</v>
+        <v>0.05269159082496757</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -3002,19 +3002,19 @@
         <v>3390</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>986</v>
+        <v>1002</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9423</v>
+        <v>9497</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01385639908467869</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004032727154463773</v>
+        <v>0.004095172451937725</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03852104750883425</v>
+        <v>0.03882309643353098</v>
       </c>
     </row>
     <row r="13">
@@ -3031,19 +3031,19 @@
         <v>4437</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12961</v>
+        <v>13614</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04283169024839704</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01036614581573519</v>
+        <v>0.01042973120152452</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1251086221023259</v>
+        <v>0.1314164511136703</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -3052,19 +3052,19 @@
         <v>6553</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2325</v>
+        <v>2254</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15317</v>
+        <v>14615</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04647126721415176</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01648815714573468</v>
+        <v>0.01598136311509434</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1086197819309213</v>
+        <v>0.103635423161762</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -3073,19 +3073,19 @@
         <v>10991</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5170</v>
+        <v>5194</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21827</v>
+        <v>20781</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0449298622756669</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02113392695015806</v>
+        <v>0.02123298082266737</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08923024186967592</v>
+        <v>0.08495170631704428</v>
       </c>
     </row>
     <row r="14">
@@ -3102,19 +3102,19 @@
         <v>98099</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>90269</v>
+        <v>89528</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>102452</v>
+        <v>102473</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9469199481059345</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8713358694354784</v>
+        <v>0.8641898456208094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9889346575561968</v>
+        <v>0.9891378660387644</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>122</v>
@@ -3123,19 +3123,19 @@
         <v>132138</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>123050</v>
+        <v>124078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136653</v>
+        <v>137409</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9370217184730344</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8725784489411178</v>
+        <v>0.8798697291639214</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9690369755699705</v>
+        <v>0.9743990216135751</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>208</v>
@@ -3144,19 +3144,19 @@
         <v>230237</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>219491</v>
+        <v>220644</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>237355</v>
+        <v>236967</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9412137386396544</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8972838256747364</v>
+        <v>0.9019968696890233</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.970314273990559</v>
+        <v>0.968726266631484</v>
       </c>
     </row>
     <row r="15">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4757</v>
+        <v>4964</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006138823562386502</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02943709691478355</v>
+        <v>0.03071739610679956</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3269,19 +3269,19 @@
         <v>4236</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9690</v>
+        <v>9958</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01737835512664784</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004497431720033495</v>
+        <v>0.00447648221195157</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03975327287680821</v>
+        <v>0.04085498216250626</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3290,19 +3290,19 @@
         <v>5228</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11409</v>
+        <v>11428</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01289728911947449</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004970536185808977</v>
+        <v>0.004949055197500319</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0281454928287245</v>
+        <v>0.0281920525756637</v>
       </c>
     </row>
     <row r="17">
@@ -3319,19 +3319,19 @@
         <v>5125</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1026</v>
+        <v>1952</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12488</v>
+        <v>13923</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03171172031708635</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006349518441652188</v>
+        <v>0.01207692753954701</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07727399891981514</v>
+        <v>0.08615219757234782</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -3340,19 +3340,19 @@
         <v>6177</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2089</v>
+        <v>2881</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12324</v>
+        <v>13477</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02534056216877155</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008568259477869369</v>
+        <v>0.01182149915581709</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05056168181508632</v>
+        <v>0.0552907158104368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -3361,19 +3361,19 @@
         <v>11302</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5899</v>
+        <v>5129</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20305</v>
+        <v>20105</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02788066626844051</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01455248860570883</v>
+        <v>0.01265331531797453</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05009051428839171</v>
+        <v>0.04959845665330899</v>
       </c>
     </row>
     <row r="18">
@@ -3390,19 +3390,19 @@
         <v>155496</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>147744</v>
+        <v>146699</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>159587</v>
+        <v>159544</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9621494561205272</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9141844687989287</v>
+        <v>0.9077200489565297</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9874611428732565</v>
+        <v>0.9871971621093658</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>221</v>
@@ -3411,19 +3411,19 @@
         <v>233337</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>225175</v>
+        <v>225059</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>238653</v>
+        <v>238584</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9572810827045806</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9237946036666551</v>
+        <v>0.9233207142053581</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9790900524496621</v>
+        <v>0.9788072854300975</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>363</v>
@@ -3432,19 +3432,19 @@
         <v>388833</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>379364</v>
+        <v>378495</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>396103</v>
+        <v>396119</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.959222044612085</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9358635669748098</v>
+        <v>0.9337189250249347</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9771556378154622</v>
+        <v>0.9771947193249335</v>
       </c>
     </row>
     <row r="19">
@@ -3536,19 +3536,19 @@
         <v>6138</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2966</v>
+        <v>2069</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13330</v>
+        <v>12321</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01096848490119195</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005299994504862984</v>
+        <v>0.003697893221933146</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02381866449756179</v>
+        <v>0.02201656591090905</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -3557,19 +3557,19 @@
         <v>13153</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7456</v>
+        <v>7490</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22854</v>
+        <v>22027</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01770354783711975</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01003596196317835</v>
+        <v>0.01008055502817329</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03076056107324554</v>
+        <v>0.02964714844208186</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -3578,19 +3578,19 @@
         <v>19292</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11738</v>
+        <v>12225</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30228</v>
+        <v>30060</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01480998431968354</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009010865740129834</v>
+        <v>0.009385247891174713</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02320555394908721</v>
+        <v>0.02307634225894416</v>
       </c>
     </row>
     <row r="21">
@@ -3607,19 +3607,19 @@
         <v>13860</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7420</v>
+        <v>7535</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24340</v>
+        <v>25538</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02476529535231574</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01325787687762773</v>
+        <v>0.01346425412092368</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04349241851146981</v>
+        <v>0.04563286234928123</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -3628,19 +3628,19 @@
         <v>21620</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13056</v>
+        <v>12952</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31244</v>
+        <v>31835</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02909982141932155</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01757197605299769</v>
+        <v>0.01743282385298935</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0420529499456824</v>
+        <v>0.04284856359086296</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -3649,19 +3649,19 @@
         <v>35480</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24929</v>
+        <v>23776</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>51061</v>
+        <v>49583</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02723759286820312</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01913756748092745</v>
+        <v>0.0182529203957396</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03919882835580531</v>
+        <v>0.03806463113582655</v>
       </c>
     </row>
     <row r="22">
@@ -3678,19 +3678,19 @@
         <v>539639</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>528963</v>
+        <v>527851</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>547348</v>
+        <v>547199</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9642662197464923</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9451901298596301</v>
+        <v>0.9432018923058232</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9780406281469549</v>
+        <v>0.9777753438279506</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>663</v>
@@ -3699,19 +3699,19 @@
         <v>708201</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>695169</v>
+        <v>694184</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>718968</v>
+        <v>718532</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9531966307435586</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9356558531028339</v>
+        <v>0.9343295747843993</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9676884232946382</v>
+        <v>0.9671009628991866</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1150</v>
@@ -3720,19 +3720,19 @@
         <v>1247840</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1230042</v>
+        <v>1231346</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1260676</v>
+        <v>1262104</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9579524228121133</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9442889698605529</v>
+        <v>0.9452901714976294</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9678061097318342</v>
+        <v>0.9689026511447055</v>
       </c>
     </row>
     <row r="23">
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6056</v>
+        <v>5984</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006885419037460151</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03492764383502656</v>
+        <v>0.03450973637875157</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6003</v>
+        <v>6787</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003849638874800843</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01935617679521603</v>
+        <v>0.02188526071381001</v>
       </c>
     </row>
     <row r="5">
@@ -4127,19 +4127,19 @@
         <v>3354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8191</v>
+        <v>8579</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0245281472813105</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005840482224430614</v>
+        <v>0.005977177884741109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05990371121378155</v>
+        <v>0.06274047897481416</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -4148,19 +4148,19 @@
         <v>5773</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2225</v>
+        <v>2176</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13376</v>
+        <v>12611</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0332948682587626</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01283419775463586</v>
+        <v>0.01254776914213793</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07714328642480277</v>
+        <v>0.07272958351826433</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -4169,19 +4169,19 @@
         <v>9127</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4038</v>
+        <v>4632</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16213</v>
+        <v>17002</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02942962236884281</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01302214437605934</v>
+        <v>0.01493728185071992</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05227904156826445</v>
+        <v>0.05482338909256447</v>
       </c>
     </row>
     <row r="6">
@@ -4198,19 +4198,19 @@
         <v>133380</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>128543</v>
+        <v>128155</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>135935</v>
+        <v>135917</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9754718527186895</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.940096288786218</v>
+        <v>0.9372595210251858</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9941595177755694</v>
+        <v>0.9940228221152589</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>151</v>
@@ -4219,19 +4219,19 @@
         <v>166424</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>158892</v>
+        <v>159673</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>170096</v>
+        <v>170931</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9598197127037773</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9163780751600419</v>
+        <v>0.9208844448340257</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.980998519424705</v>
+        <v>0.9858103234375271</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>295</v>
@@ -4240,19 +4240,19 @@
         <v>299804</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>291950</v>
+        <v>291754</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>304951</v>
+        <v>304929</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9667207387563563</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9413935435620446</v>
+        <v>0.9407639448632932</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9833152618165528</v>
+        <v>0.9832470286524161</v>
       </c>
     </row>
     <row r="7">
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4070</v>
+        <v>4589</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00552829074437696</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02467654063112632</v>
+        <v>0.02782365137916345</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11227</v>
+        <v>11259</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01492100671304906</v>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0512254639781338</v>
+        <v>0.05137183724085806</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -4389,16 +4389,16 @@
         <v>914</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13074</v>
+        <v>12141</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01088761347110163</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002380511987144483</v>
+        <v>0.002380770333823765</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03403758006014258</v>
+        <v>0.03160894190197824</v>
       </c>
     </row>
     <row r="9">
@@ -4415,19 +4415,19 @@
         <v>3443</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8020</v>
+        <v>8671</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02087414006075283</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005097951216255972</v>
+        <v>0.005077236541742643</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04862316605145508</v>
+        <v>0.05257168847802236</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -4436,19 +4436,19 @@
         <v>3608</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1002</v>
+        <v>1013</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10680</v>
+        <v>9584</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01646089927683599</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004572226980400221</v>
+        <v>0.004620227866771712</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0487325665920949</v>
+        <v>0.04372998679093986</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -4457,19 +4457,19 @@
         <v>7051</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3115</v>
+        <v>3201</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13866</v>
+        <v>13895</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01835602051890347</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008108484422569232</v>
+        <v>0.00833353759897899</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03609901792556457</v>
+        <v>0.03617583533124641</v>
       </c>
     </row>
     <row r="10">
@@ -4486,19 +4486,19 @@
         <v>160586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>155472</v>
+        <v>155452</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163261</v>
+        <v>163231</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9735975691948702</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9425901369130286</v>
+        <v>0.9424701372066364</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9898124634439809</v>
+        <v>0.989631620382689</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -4507,19 +4507,19 @@
         <v>212285</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>203367</v>
+        <v>203831</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>216855</v>
+        <v>216799</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9686180940101149</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9279243927914115</v>
+        <v>0.9300406657939247</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9894708047726665</v>
+        <v>0.9892124223314623</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>347</v>
@@ -4528,19 +4528,19 @@
         <v>372871</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>364550</v>
+        <v>364605</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>378598</v>
+        <v>378564</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9707563660099949</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.949093004431227</v>
+        <v>0.9492348403507695</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9856647920970095</v>
+        <v>0.9855775023878446</v>
       </c>
     </row>
     <row r="11">
@@ -4645,19 +4645,19 @@
         <v>3656</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9777</v>
+        <v>9448</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02563614143841433</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0071570179619909</v>
+        <v>0.007238624785202577</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06856405760475165</v>
+        <v>0.06625991591719149</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -4666,19 +4666,19 @@
         <v>3656</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9990</v>
+        <v>10762</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01418932766169638</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00404598091686765</v>
+        <v>0.004040502363352423</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03877483772746225</v>
+        <v>0.04177421766374295</v>
       </c>
     </row>
     <row r="13">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5169</v>
+        <v>4438</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008869134381670158</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04493419131458797</v>
+        <v>0.03858323125983543</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4716,19 +4716,19 @@
         <v>6949</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2617</v>
+        <v>2599</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15090</v>
+        <v>15085</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04873227751219081</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01835365934828275</v>
+        <v>0.01822409398082201</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1058233990770779</v>
+        <v>0.1057892479043054</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -4737,19 +4737,19 @@
         <v>7969</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3009</v>
+        <v>3507</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16435</v>
+        <v>16389</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03093295396477216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01167978593165792</v>
+        <v>0.01361391801746907</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06379255182403637</v>
+        <v>0.06361512818063483</v>
       </c>
     </row>
     <row r="14">
@@ -4766,7 +4766,7 @@
         <v>114015</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>109866</v>
+        <v>110597</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>115035</v>
@@ -4775,7 +4775,7 @@
         <v>0.9911308656183299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.955065808685412</v>
+        <v>0.9614167687401654</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4787,19 +4787,19 @@
         <v>131991</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>123436</v>
+        <v>122914</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>138258</v>
+        <v>137579</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9256315810493948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8656337735123041</v>
+        <v>0.8619726705662958</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9695790460470767</v>
+        <v>0.964816913793518</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>223</v>
@@ -4808,19 +4808,19 @@
         <v>246006</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>236786</v>
+        <v>235878</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>251831</v>
+        <v>252237</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9548777183735314</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.919090556966676</v>
+        <v>0.9155670470686045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9774853981100771</v>
+        <v>0.9790640713343436</v>
       </c>
     </row>
     <row r="15">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8908</v>
+        <v>6331</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005079819195252043</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03669334472228693</v>
+        <v>0.02607794247258185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6199</v>
+        <v>6828</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002954686433107249</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01485094313939351</v>
+        <v>0.01635908581586599</v>
       </c>
     </row>
     <row r="17">
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3131</v>
+        <v>3828</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004375417880110798</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01793280497615641</v>
+        <v>0.02191984644570067</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -4996,19 +4996,19 @@
         <v>5270</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1358</v>
+        <v>1386</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13146</v>
+        <v>12365</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02170819749990912</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005592740592420544</v>
+        <v>0.005708157955428757</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05414781306632037</v>
+        <v>0.05093205372725049</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -5017,19 +5017,19 @@
         <v>6034</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2162</v>
+        <v>2041</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12688</v>
+        <v>13743</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01445706189581182</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005178550395784068</v>
+        <v>0.004890504742564358</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03039685510935551</v>
+        <v>0.03292481092360241</v>
       </c>
     </row>
     <row r="18">
@@ -5046,7 +5046,7 @@
         <v>173854</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>171487</v>
+        <v>170790</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>174618</v>
@@ -5055,7 +5055,7 @@
         <v>0.9956245821198892</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9820671950238435</v>
+        <v>0.9780801535542993</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -5067,19 +5067,19 @@
         <v>236277</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>227875</v>
+        <v>227546</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>240271</v>
+        <v>240234</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9732119833048388</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9386014421552945</v>
+        <v>0.9372481879648384</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.989660498137128</v>
+        <v>0.9895109502575568</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>382</v>
@@ -5088,19 +5088,19 @@
         <v>410132</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>402651</v>
+        <v>401577</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>414751</v>
+        <v>414612</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9825882516710809</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9646651432743693</v>
+        <v>0.9620924609047481</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.993653765252639</v>
+        <v>0.9933216917445298</v>
       </c>
     </row>
     <row r="19">
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5159</v>
+        <v>5309</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001542021745721652</v>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008725063339439303</v>
+        <v>0.008977842348289276</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -5213,19 +5213,19 @@
         <v>9353</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3881</v>
+        <v>4024</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18182</v>
+        <v>19020</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01202278391417651</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00498907953796632</v>
+        <v>0.005172913652343402</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0233716208233975</v>
+        <v>0.02444959348314438</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -5234,19 +5234,19 @@
         <v>10265</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4563</v>
+        <v>4555</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19773</v>
+        <v>18668</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007496563438631229</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003332287697218136</v>
+        <v>0.003326519636375536</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0144406732482206</v>
+        <v>0.01363343878407769</v>
       </c>
     </row>
     <row r="21">
@@ -5263,19 +5263,19 @@
         <v>8581</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4278</v>
+        <v>4550</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15218</v>
+        <v>15665</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01451160060330047</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007235041103060154</v>
+        <v>0.00769378710440354</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02573514881445515</v>
+        <v>0.0264913575982695</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -5284,19 +5284,19 @@
         <v>21600</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13293</v>
+        <v>13342</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>34288</v>
+        <v>33711</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02776597343869154</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01708762124529604</v>
+        <v>0.01715098620138967</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04407611261033845</v>
+        <v>0.04333424641996764</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -5305,19 +5305,19 @@
         <v>30181</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20056</v>
+        <v>20554</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>43639</v>
+        <v>43067</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02204194185073855</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01464717813192229</v>
+        <v>0.01501079184936852</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0318704826121786</v>
+        <v>0.03145274302391803</v>
       </c>
     </row>
     <row r="22">
@@ -5334,19 +5334,19 @@
         <v>581835</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>574710</v>
+        <v>574420</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>586370</v>
+        <v>586161</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9839463776509779</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9718964063480081</v>
+        <v>0.9714072891331518</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9916159317077841</v>
+        <v>0.9912617611997274</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>631</v>
@@ -5355,19 +5355,19 @@
         <v>746978</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>733006</v>
+        <v>733546</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>757463</v>
+        <v>757487</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.960211242647132</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9422511830403836</v>
+        <v>0.9429452341464934</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9736896694761941</v>
+        <v>0.9737205474694121</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1247</v>
@@ -5376,19 +5376,19 @@
         <v>1328813</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1313934</v>
+        <v>1314051</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1340949</v>
+        <v>1341043</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9704614947106303</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.959594719991284</v>
+        <v>0.9596803360359516</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.979324263583745</v>
+        <v>0.9793933068016278</v>
       </c>
     </row>
     <row r="23">
@@ -5720,19 +5720,19 @@
         <v>1027</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3082</v>
+        <v>2792</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006290097468795931</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00201734949280206</v>
+        <v>0.002047174982211377</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01887181725156414</v>
+        <v>0.01709522502082587</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -5741,19 +5741,19 @@
         <v>2057</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4509</v>
+        <v>4776</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01076559012385067</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003817176355753413</v>
+        <v>0.00380576911506809</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02360633542543708</v>
+        <v>0.02499962064163295</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -5762,19 +5762,19 @@
         <v>3084</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1171</v>
+        <v>1414</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5727</v>
+        <v>5661</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00870286813854544</v>
+        <v>0.008702868138545442</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00330513394922671</v>
+        <v>0.003989760629191354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01616151195443566</v>
+        <v>0.01597541959276895</v>
       </c>
     </row>
     <row r="5">
@@ -5791,19 +5791,19 @@
         <v>2009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4687</v>
+        <v>4941</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01230435399972693</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003040887845744752</v>
+        <v>0.003071654861044828</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02869626137336882</v>
+        <v>0.03025632692561927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -5812,19 +5812,19 @@
         <v>6279</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3627</v>
+        <v>3552</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10459</v>
+        <v>10168</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0328674765590608</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0189876444839294</v>
+        <v>0.01859525027093777</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05474938275044953</v>
+        <v>0.05322825016748912</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -5833,19 +5833,19 @@
         <v>8288</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4825</v>
+        <v>5219</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12847</v>
+        <v>13366</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02339008306099346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01361705475618738</v>
+        <v>0.01472792336798921</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03625702922210194</v>
+        <v>0.03772166085060984</v>
       </c>
     </row>
     <row r="6">
@@ -5862,19 +5862,19 @@
         <v>160277</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>157443</v>
+        <v>157269</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>162125</v>
+        <v>162011</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9814055485314772</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.964052758582675</v>
+        <v>0.9629868696824351</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9927211352200459</v>
+        <v>0.9920215496786178</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>425</v>
@@ -5883,19 +5883,19 @@
         <v>182694</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>178463</v>
+        <v>178315</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>185885</v>
+        <v>185947</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9563669333170886</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9342178578950631</v>
+        <v>0.9334472305152596</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9730716762236621</v>
+        <v>0.9733972578145255</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>671</v>
@@ -5904,19 +5904,19 @@
         <v>342971</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>337950</v>
+        <v>337783</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>347388</v>
+        <v>346582</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9679070488004612</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9537370245926806</v>
+        <v>0.9532650021629252</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9803711289683082</v>
+        <v>0.9780986090924702</v>
       </c>
     </row>
     <row r="7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3423</v>
+        <v>3834</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006095134461844299</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01921073064732566</v>
+        <v>0.02151633424463742</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -6029,19 +6029,19 @@
         <v>3262</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6736</v>
+        <v>6313</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01347818338598094</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005448598717945671</v>
+        <v>0.005431809608003462</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02782967531326991</v>
+        <v>0.02608161940354814</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -6050,19 +6050,19 @@
         <v>4348</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2000</v>
+        <v>2114</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8189</v>
+        <v>8607</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01034741036387063</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004758818538429362</v>
+        <v>0.005029418623140264</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01948621027942568</v>
+        <v>0.020480568055715</v>
       </c>
     </row>
     <row r="9">
@@ -6079,19 +6079,19 @@
         <v>3090</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1000</v>
+        <v>1054</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6991</v>
+        <v>7345</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01733807191734127</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005610896053238021</v>
+        <v>0.005915053723620535</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03923166741699657</v>
+        <v>0.04121866094790187</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -6100,19 +6100,19 @@
         <v>8077</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4620</v>
+        <v>4769</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12777</v>
+        <v>12937</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03336926389634108</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01908778566714533</v>
+        <v>0.01970257447734178</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05278702234014908</v>
+        <v>0.05345162198547151</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -6121,19 +6121,19 @@
         <v>11166</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6863</v>
+        <v>7042</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17364</v>
+        <v>17795</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.02657125620658535</v>
+        <v>0.02657125620658534</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01633050252807433</v>
+        <v>0.01675763613065135</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04131882260184699</v>
+        <v>0.04234339289757508</v>
       </c>
     </row>
     <row r="10">
@@ -6150,19 +6150,19 @@
         <v>174028</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169708</v>
+        <v>169226</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>176511</v>
+        <v>176321</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9765667936208144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9523266036810656</v>
+        <v>0.9496222929932167</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9904973675424831</v>
+        <v>0.9894329480589596</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>427</v>
@@ -6171,19 +6171,19 @@
         <v>230701</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>225442</v>
+        <v>225458</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>234619</v>
+        <v>234800</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.953152552717678</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9314241674246554</v>
+        <v>0.9314899378442676</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9693381669665134</v>
+        <v>0.970087327723564</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>674</v>
@@ -6192,19 +6192,19 @@
         <v>404728</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>397909</v>
+        <v>397386</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>409779</v>
+        <v>409863</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9630813334295441</v>
+        <v>0.9630813334295442</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9468538479105328</v>
+        <v>0.9456099889637958</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9751008040692023</v>
+        <v>0.9753002270155507</v>
       </c>
     </row>
     <row r="11">
@@ -6312,16 +6312,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4992</v>
+        <v>5018</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.008868622107954669</v>
+        <v>0.008868622107954671</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0285402380539811</v>
+        <v>0.02869136684401507</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4912</v>
+        <v>6249</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004634693328896285</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01467706235602569</v>
+        <v>0.01867091582957394</v>
       </c>
     </row>
     <row r="13">
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4662</v>
+        <v>4637</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005798346175400712</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02917361567634365</v>
+        <v>0.02902170727664952</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -6380,19 +6380,19 @@
         <v>3126</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6904</v>
+        <v>6928</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01787052350215224</v>
+        <v>0.01787052350215225</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006961830294467181</v>
+        <v>0.006986258539318714</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03947350750866699</v>
+        <v>0.0396103508086456</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -6401,19 +6401,19 @@
         <v>4052</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1828</v>
+        <v>1282</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8694</v>
+        <v>8060</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01210719991169459</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005462732840778443</v>
+        <v>0.003829357339456302</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0259749255537152</v>
+        <v>0.02408080724802762</v>
       </c>
     </row>
     <row r="14">
@@ -6430,7 +6430,7 @@
         <v>158859</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>155123</v>
+        <v>155148</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>159785</v>
@@ -6439,7 +6439,7 @@
         <v>0.9942016538245991</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9708263843236563</v>
+        <v>0.9709782927233506</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -6451,19 +6451,19 @@
         <v>170232</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>165311</v>
+        <v>165600</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>172783</v>
+        <v>172789</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.973260854389893</v>
+        <v>0.9732608543898932</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9451281416365906</v>
+        <v>0.9467786888918259</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9878453649842166</v>
+        <v>0.9878797591281675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>473</v>
@@ -6472,19 +6472,19 @@
         <v>329091</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>324259</v>
+        <v>323877</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>332185</v>
+        <v>332132</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9832581067594091</v>
+        <v>0.9832581067594093</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9688228274117308</v>
+        <v>0.9676819820837058</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9925046377613307</v>
+        <v>0.9923441849066332</v>
       </c>
     </row>
     <row r="15">
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3392</v>
+        <v>3070</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002835485766871451</v>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01577186189042524</v>
+        <v>0.01427087800715662</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -6597,19 +6597,19 @@
         <v>1267</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3410</v>
+        <v>3668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004290360094572087</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001352370765413282</v>
+        <v>0.001347708401607412</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01154444560994636</v>
+        <v>0.01241904064635381</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -6618,19 +6618,19 @@
         <v>1877</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4870</v>
+        <v>4567</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003677323820137284</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.000809293590860022</v>
+        <v>0.0008123231398246506</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009541272669973452</v>
+        <v>0.008946500894975442</v>
       </c>
     </row>
     <row r="17">
@@ -6647,19 +6647,19 @@
         <v>3648</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1291</v>
+        <v>1256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7790</v>
+        <v>7111</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01696249829134522</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006000303754030815</v>
+        <v>0.00583805485645378</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0362195041315678</v>
+        <v>0.03306278706902197</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -6668,19 +6668,19 @@
         <v>8104</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3775</v>
+        <v>4192</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14913</v>
+        <v>14609</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02743790816912228</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01277937697776331</v>
+        <v>0.01419337785685738</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05049051488984982</v>
+        <v>0.04946028472087688</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -6689,19 +6689,19 @@
         <v>11753</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7013</v>
+        <v>7206</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18873</v>
+        <v>20671</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0230239143812194</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01373907624193836</v>
+        <v>0.01411619919516947</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03697314998083404</v>
+        <v>0.04049554241512521</v>
       </c>
     </row>
     <row r="18">
@@ -6718,19 +6718,19 @@
         <v>210831</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>206166</v>
+        <v>206910</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>213346</v>
+        <v>213392</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9802020159417834</v>
+        <v>0.9802020159417832</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9585149478098842</v>
+        <v>0.9619752083829256</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9918959191457</v>
+        <v>0.992108871160623</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>510</v>
@@ -6739,19 +6739,19 @@
         <v>285995</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>279144</v>
+        <v>279083</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>290379</v>
+        <v>289984</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9682717317363058</v>
+        <v>0.9682717317363055</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9450773326866122</v>
+        <v>0.9448714381966054</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9831156448548228</v>
+        <v>0.9817791515883147</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>830</v>
@@ -6760,19 +6760,19 @@
         <v>496824</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>489693</v>
+        <v>487514</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>501754</v>
+        <v>501579</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9732987617986433</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.959328486448124</v>
+        <v>0.9550592535140029</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9829567250469704</v>
+        <v>0.9826132968209493</v>
       </c>
     </row>
     <row r="19">
@@ -6864,19 +6864,19 @@
         <v>2723</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5804</v>
+        <v>6373</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003801441039884322</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001607375258940545</v>
+        <v>0.001593326158095672</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008102275399288247</v>
+        <v>0.00889547894698047</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -6885,19 +6885,19 @@
         <v>8137</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5080</v>
+        <v>4779</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13661</v>
+        <v>13052</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009007895721237145</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005623681387429994</v>
+        <v>0.005290900953340801</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01512275093936867</v>
+        <v>0.01444874023678274</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -6906,19 +6906,19 @@
         <v>10861</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7173</v>
+        <v>6921</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16421</v>
+        <v>16001</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.00670513677283464</v>
+        <v>0.006705136772834641</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004428316547128189</v>
+        <v>0.00427300943585317</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01013829029058329</v>
+        <v>0.009878478388935944</v>
       </c>
     </row>
     <row r="21">
@@ -6935,19 +6935,19 @@
         <v>9674</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5610</v>
+        <v>5642</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15868</v>
+        <v>15565</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01350395145377913</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007831107128968702</v>
+        <v>0.007875467534858516</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02214967443662246</v>
+        <v>0.02172702567233913</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>47</v>
@@ -6956,19 +6956,19 @@
         <v>25585</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18774</v>
+        <v>18216</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>34631</v>
+        <v>34718</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.02832284988799024</v>
+        <v>0.02832284988799025</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02078228507517475</v>
+        <v>0.02016457709369058</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03833601559341689</v>
+        <v>0.03843314931075827</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>63</v>
@@ -6977,19 +6977,19 @@
         <v>35259</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>27017</v>
+        <v>26086</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>46622</v>
+        <v>45311</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0217686103788929</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01667977449314461</v>
+        <v>0.01610506035813262</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02878376862097116</v>
+        <v>0.02797403295693915</v>
       </c>
     </row>
     <row r="22">
@@ -7006,19 +7006,19 @@
         <v>703994</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>696523</v>
+        <v>697622</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>708372</v>
+        <v>708639</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9826946075063364</v>
+        <v>0.9826946075063367</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9722669844526234</v>
+        <v>0.9738005370870318</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9888062009225477</v>
+        <v>0.9891790515297681</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1643</v>
@@ -7027,19 +7027,19 @@
         <v>869621</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>859865</v>
+        <v>859305</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>876744</v>
+        <v>878219</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9626692543907727</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.951869815965128</v>
+        <v>0.9512504597650061</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9705545164228541</v>
+        <v>0.9721875409348099</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2648</v>
@@ -7048,19 +7048,19 @@
         <v>1573615</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1561056</v>
+        <v>1562617</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1583171</v>
+        <v>1583533</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9715262528482724</v>
+        <v>0.9715262528482725</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9637727097670628</v>
+        <v>0.9647361669394642</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.977426038638296</v>
+        <v>0.9776493965818973</v>
       </c>
     </row>
     <row r="23">
